--- a/server/User Data.xlsx
+++ b/server/User Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>User Admin</t>
+  </si>
+  <si>
+    <t>jaglike.makkar@codingninjas.com</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -126,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -162,6 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,16 +193,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,77 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -299,7 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,21 +331,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,25 +351,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,157 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,30 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -591,6 +576,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +619,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -639,164 +657,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -807,10 +816,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,13 +1085,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -1114,46 +1124,46 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="3" t="s">
@@ -1427,7 +1437,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:22">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="jaglike.makkar@codingninjas.com" tooltip="mailto:jaglike.makkar@codingninjas.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/server/User Data.xlsx
+++ b/server/User Data.xlsx
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -193,7 +193,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -201,69 +222,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,47 +276,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,13 +351,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,169 +477,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,11 +562,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +572,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,25 +632,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,166 +657,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
